--- a/Testing import SKJ A.Yani 37800K.xlsx
+++ b/Testing import SKJ A.Yani 37800K.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\temanjabar-laravel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3F42D9D-3EB8-4695-8DD1-453A2E7B3EE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A929A1A6-9412-4273-840B-BBAA41884956}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{46AB4CF6-FCF3-4163-B41B-4E2787E9B38D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46AB4CF6-FCF3-4163-B41B-4E2787E9B38D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,34 +25,82 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Lat</t>
-  </si>
-  <si>
-    <t>Long</t>
-  </si>
-  <si>
-    <t>Speed</t>
-  </si>
-  <si>
-    <t>Altitude</t>
-  </si>
-  <si>
-    <t>eIri</t>
-  </si>
-  <si>
-    <t>cIri</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>cIRI-sensitivity:  1.5 | eIRI-sensitivity 1</t>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Distance(m)</t>
+  </si>
+  <si>
+    <t>Speed (km/h)</t>
+  </si>
+  <si>
+    <t>Altitude (m)</t>
+  </si>
+  <si>
+    <t>Grade (%)</t>
+  </si>
+  <si>
+    <t>eIRI</t>
+  </si>
+  <si>
+    <t>cIRI</t>
+  </si>
+  <si>
+    <t>RoadId</t>
+  </si>
+  <si>
+    <t>... 001</t>
+  </si>
+  <si>
+    <t>... 002</t>
+  </si>
+  <si>
+    <t>... 003</t>
+  </si>
+  <si>
+    <t>... 004</t>
+  </si>
+  <si>
+    <t>... 005</t>
+  </si>
+  <si>
+    <t>... 006</t>
+  </si>
+  <si>
+    <t>... 007</t>
+  </si>
+  <si>
+    <t>... 008</t>
+  </si>
+  <si>
+    <t>... 009</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -78,8 +126,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -98,7 +147,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -394,215 +443,344 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C6427A-BB3B-4AE2-B4BE-90BA89C85530}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44226.531631944446</v>
+      </c>
+      <c r="B3">
         <v>-6.915635</v>
       </c>
-      <c r="B2">
+      <c r="C3">
         <v>107.630117</v>
       </c>
-      <c r="C2">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>24</v>
+      </c>
+      <c r="F3">
+        <v>128.40819999999999</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>3.74</v>
+      </c>
+      <c r="I3">
+        <v>2.48</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>44226.532326388886</v>
+      </c>
+      <c r="B4">
+        <v>-6.9154540000000004</v>
+      </c>
+      <c r="C4">
+        <v>107.630493</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4">
         <v>39</v>
       </c>
-      <c r="D2">
+      <c r="F4">
         <v>128.20820000000001</v>
       </c>
-      <c r="E2">
+      <c r="G4">
+        <v>1.22</v>
+      </c>
+      <c r="H4">
         <v>2.876433</v>
       </c>
-      <c r="F2">
+      <c r="I4">
         <v>4.5121669999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>-6.9154540000000004</v>
-      </c>
-      <c r="B3">
-        <v>107.630493</v>
-      </c>
-      <c r="C3">
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>44226.533020717594</v>
+      </c>
+      <c r="B5">
+        <v>-6.9152189999999996</v>
+      </c>
+      <c r="C5">
+        <v>107.630911</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
         <v>55</v>
       </c>
-      <c r="D3">
+      <c r="F5">
         <v>128.50559999999999</v>
       </c>
-      <c r="E3">
+      <c r="G5">
+        <v>1.01</v>
+      </c>
+      <c r="H5">
         <v>2.7895880000000002</v>
       </c>
-      <c r="F3">
+      <c r="I5">
         <v>4.1824500000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>-6.9152189999999996</v>
-      </c>
-      <c r="B4">
-        <v>107.630911</v>
-      </c>
-      <c r="C4">
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>44226.533715104168</v>
+      </c>
+      <c r="B6">
+        <v>-6.9149960000000004</v>
+      </c>
+      <c r="C6">
+        <v>107.631276</v>
+      </c>
+      <c r="D6">
+        <v>150</v>
+      </c>
+      <c r="E6">
         <v>50</v>
       </c>
-      <c r="D4">
+      <c r="F6">
         <v>128.81610000000001</v>
       </c>
-      <c r="E4">
+      <c r="G6">
+        <v>0.52</v>
+      </c>
+      <c r="H6">
         <v>3.4189560000000001</v>
       </c>
-      <c r="F4">
+      <c r="I6">
         <v>4.6682439999999996</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>-6.9149960000000004</v>
-      </c>
-      <c r="B5">
-        <v>107.631276</v>
-      </c>
-      <c r="C5">
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>44226.534409490741</v>
+      </c>
+      <c r="B7">
+        <v>-6.9148040000000002</v>
+      </c>
+      <c r="C7">
+        <v>107.63166200000001</v>
+      </c>
+      <c r="D7">
+        <v>200</v>
+      </c>
+      <c r="E7">
         <v>32</v>
       </c>
-      <c r="D5">
+      <c r="F7">
         <v>129.07839999999999</v>
       </c>
-      <c r="E5">
+      <c r="G7">
+        <v>0.21</v>
+      </c>
+      <c r="H7">
         <v>3.6846559999999999</v>
       </c>
-      <c r="F5">
+      <c r="I7">
         <v>4.3876780000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>-6.9148040000000002</v>
-      </c>
-      <c r="B6">
-        <v>107.63166200000001</v>
-      </c>
-      <c r="C6">
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44226.535103877315</v>
+      </c>
+      <c r="B8">
+        <v>-6.9145799999999999</v>
+      </c>
+      <c r="C8">
+        <v>107.632113</v>
+      </c>
+      <c r="D8">
+        <v>250</v>
+      </c>
+      <c r="E8">
         <v>31</v>
       </c>
-      <c r="D6">
+      <c r="F8">
         <v>129.0249</v>
       </c>
-      <c r="E6">
+      <c r="G8">
+        <v>0.77</v>
+      </c>
+      <c r="H8">
         <v>2.576422</v>
       </c>
-      <c r="F6">
+      <c r="I8">
         <v>4.295356</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>-6.9145799999999999</v>
-      </c>
-      <c r="B7">
-        <v>107.632113</v>
-      </c>
-      <c r="C7">
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>44226.535798263889</v>
+      </c>
+      <c r="B9">
+        <v>-6.9143569999999999</v>
+      </c>
+      <c r="C9">
+        <v>107.632488</v>
+      </c>
+      <c r="D9">
+        <v>300</v>
+      </c>
+      <c r="E9">
         <v>52</v>
       </c>
-      <c r="D7">
+      <c r="F9">
         <v>128.94399999999999</v>
       </c>
-      <c r="E7">
+      <c r="G9">
+        <v>1.27</v>
+      </c>
+      <c r="H9">
         <v>2.0732469999999998</v>
       </c>
-      <c r="F7">
+      <c r="I9">
         <v>4.0604709999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>-6.9143569999999999</v>
-      </c>
-      <c r="B8">
-        <v>107.632488</v>
-      </c>
-      <c r="C8">
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>44226.536492650463</v>
+      </c>
+      <c r="B10">
+        <v>-6.9141649999999997</v>
+      </c>
+      <c r="C10">
+        <v>107.632885</v>
+      </c>
+      <c r="D10">
+        <v>350</v>
+      </c>
+      <c r="E10">
         <v>51</v>
       </c>
-      <c r="D8">
+      <c r="F10">
         <v>130.26849999999999</v>
       </c>
-      <c r="E8">
+      <c r="G10">
+        <v>-0.08</v>
+      </c>
+      <c r="H10">
         <v>2.675967</v>
       </c>
-      <c r="F8">
+      <c r="I10">
         <v>5.8302170000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>-6.9141649999999997</v>
-      </c>
-      <c r="B9">
-        <v>107.632885</v>
-      </c>
-      <c r="C9">
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>44226.537187037036</v>
+      </c>
+      <c r="B11">
+        <v>-6.9139929999999996</v>
+      </c>
+      <c r="C11">
+        <v>107.63329400000001</v>
+      </c>
+      <c r="D11">
+        <v>400</v>
+      </c>
+      <c r="E11">
         <v>52</v>
       </c>
-      <c r="D9">
+      <c r="F11">
         <v>130.21860000000001</v>
       </c>
-      <c r="E9">
+      <c r="G11">
+        <v>0.05</v>
+      </c>
+      <c r="H11">
         <v>2.7110889999999999</v>
       </c>
-      <c r="F9">
-        <v>7.0148669999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>-6.9139929999999996</v>
-      </c>
-      <c r="B10">
-        <v>107.63329400000001</v>
-      </c>
-      <c r="C10">
-        <v>25</v>
-      </c>
-      <c r="D10">
-        <v>130.30619999999999</v>
-      </c>
-      <c r="E10">
-        <v>1.81006</v>
-      </c>
-      <c r="F10">
-        <v>1.4225300000000001</v>
+      <c r="I11">
+        <v>4.0148669999999997</v>
+      </c>
+      <c r="J11" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
